--- a/contratos/contratos-8-2010.xlsx
+++ b/contratos/contratos-8-2010.xlsx
@@ -472,7 +472,7 @@
     <t>LANGONI JAVIER JOSE</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>TOME SARA EVA GRACIELA</t>
@@ -484,13 +484,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>HOSIFA CONSTRUCTORA S.A.</t>
@@ -553,7 +553,7 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
@@ -754,301 +754,301 @@
     <t>37</t>
   </si>
   <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.775,00</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>209,50</t>
-  </si>
-  <si>
-    <t>59,00</t>
-  </si>
-  <si>
-    <t>2.559,86</t>
-  </si>
-  <si>
-    <t>52.010,00</t>
-  </si>
-  <si>
-    <t>85.066,73</t>
-  </si>
-  <si>
-    <t>22.467,83</t>
-  </si>
-  <si>
-    <t>6.237,00</t>
-  </si>
-  <si>
-    <t>6.996,50</t>
-  </si>
-  <si>
-    <t>1.486,48</t>
-  </si>
-  <si>
-    <t>5.131,50</t>
-  </si>
-  <si>
-    <t>6.144,29</t>
-  </si>
-  <si>
-    <t>519,00</t>
-  </si>
-  <si>
-    <t>8.217,96</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>1.237,00</t>
-  </si>
-  <si>
-    <t>119,98</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>682,35</t>
-  </si>
-  <si>
-    <t>27,00</t>
-  </si>
-  <si>
-    <t>2.220,00</t>
-  </si>
-  <si>
-    <t>411,40</t>
-  </si>
-  <si>
-    <t>1.182,00</t>
-  </si>
-  <si>
-    <t>9.314,14</t>
-  </si>
-  <si>
-    <t>555,00</t>
-  </si>
-  <si>
-    <t>927,33</t>
-  </si>
-  <si>
-    <t>8.336,00</t>
-  </si>
-  <si>
-    <t>216,50</t>
-  </si>
-  <si>
-    <t>45,96</t>
-  </si>
-  <si>
-    <t>31,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>1.139,00</t>
-  </si>
-  <si>
-    <t>18,40</t>
-  </si>
-  <si>
-    <t>3.612,28</t>
-  </si>
-  <si>
-    <t>1.290,00</t>
-  </si>
-  <si>
-    <t>1.286,60</t>
-  </si>
-  <si>
-    <t>1.275,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>12.513,00</t>
-  </si>
-  <si>
-    <t>3.906,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>483,00</t>
-  </si>
-  <si>
-    <t>5.208,97</t>
-  </si>
-  <si>
-    <t>1.164,12</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>200.340,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>5.928,00</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>908,50</t>
-  </si>
-  <si>
-    <t>5.700,30</t>
-  </si>
-  <si>
-    <t>102,72</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>13.300,00</t>
-  </si>
-  <si>
-    <t>539,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>479,95</t>
-  </si>
-  <si>
-    <t>39,80</t>
-  </si>
-  <si>
-    <t>2.872,88</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>3.213,76</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>1.379,04</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>3.928,24</t>
-  </si>
-  <si>
-    <t>319,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>665,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>360,40</t>
-  </si>
-  <si>
-    <t>101,70</t>
-  </si>
-  <si>
-    <t>117,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>520,96</t>
-  </si>
-  <si>
-    <t>49,90</t>
-  </si>
-  <si>
-    <t>847,00</t>
-  </si>
-  <si>
-    <t>2.688,88</t>
-  </si>
-  <si>
-    <t>2.341,35</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>9.958,48</t>
-  </si>
-  <si>
-    <t>2.957,28</t>
-  </si>
-  <si>
-    <t>936.896,62</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1775.00</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>209.50</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>2559.86</t>
+  </si>
+  <si>
+    <t>52010.00</t>
+  </si>
+  <si>
+    <t>85066.73</t>
+  </si>
+  <si>
+    <t>22467.83</t>
+  </si>
+  <si>
+    <t>6237.00</t>
+  </si>
+  <si>
+    <t>6996.50</t>
+  </si>
+  <si>
+    <t>1486.48</t>
+  </si>
+  <si>
+    <t>5131.50</t>
+  </si>
+  <si>
+    <t>6144.29</t>
+  </si>
+  <si>
+    <t>519.00</t>
+  </si>
+  <si>
+    <t>8217.96</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>1237.00</t>
+  </si>
+  <si>
+    <t>119.98</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>682.35</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>2220.00</t>
+  </si>
+  <si>
+    <t>411.40</t>
+  </si>
+  <si>
+    <t>1182.00</t>
+  </si>
+  <si>
+    <t>9314.14</t>
+  </si>
+  <si>
+    <t>555.00</t>
+  </si>
+  <si>
+    <t>927.33</t>
+  </si>
+  <si>
+    <t>8336.00</t>
+  </si>
+  <si>
+    <t>216.50</t>
+  </si>
+  <si>
+    <t>45.96</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>1139.00</t>
+  </si>
+  <si>
+    <t>18.40</t>
+  </si>
+  <si>
+    <t>3612.28</t>
+  </si>
+  <si>
+    <t>1290.00</t>
+  </si>
+  <si>
+    <t>1286.60</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>12513.00</t>
+  </si>
+  <si>
+    <t>3906.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>483.00</t>
+  </si>
+  <si>
+    <t>5208.97</t>
+  </si>
+  <si>
+    <t>1164.12</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>200340.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>5928.00</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>908.50</t>
+  </si>
+  <si>
+    <t>5700.30</t>
+  </si>
+  <si>
+    <t>102.72</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>13300.00</t>
+  </si>
+  <si>
+    <t>539.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>479.95</t>
+  </si>
+  <si>
+    <t>39.80</t>
+  </si>
+  <si>
+    <t>2872.88</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>3213.76</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>1379.04</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>3928.24</t>
+  </si>
+  <si>
+    <t>319.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>665.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>360.40</t>
+  </si>
+  <si>
+    <t>101.70</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>520.96</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>847.00</t>
+  </si>
+  <si>
+    <t>2688.88</t>
+  </si>
+  <si>
+    <t>2341.35</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>9958.48</t>
+  </si>
+  <si>
+    <t>2957.28</t>
+  </si>
+  <si>
+    <t>936896.62</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
   </si>
 </sst>
 </file>
